--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H2">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N2">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O2">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P2">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q2">
-        <v>33.30727348562755</v>
+        <v>59.76448655463322</v>
       </c>
       <c r="R2">
-        <v>299.765461370648</v>
+        <v>537.880378991699</v>
       </c>
       <c r="S2">
-        <v>0.03179749615488279</v>
+        <v>0.03614244393565368</v>
       </c>
       <c r="T2">
-        <v>0.0317974961548828</v>
+        <v>0.03614244393565368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H3">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N3">
         <v>1.76074</v>
       </c>
       <c r="O3">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P3">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q3">
-        <v>5.245059777937778</v>
+        <v>8.496047269264444</v>
       </c>
       <c r="R3">
-        <v>47.20553800144</v>
+        <v>76.46442542338001</v>
       </c>
       <c r="S3">
-        <v>0.005007307733942081</v>
+        <v>0.005137966203781407</v>
       </c>
       <c r="T3">
-        <v>0.005007307733942082</v>
+        <v>0.005137966203781407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H4">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N4">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O4">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P4">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q4">
-        <v>4.085212071951111</v>
+        <v>6.297533271139444</v>
       </c>
       <c r="R4">
-        <v>36.76690864756</v>
+        <v>56.677799440255</v>
       </c>
       <c r="S4">
-        <v>0.003900034483633109</v>
+        <v>0.003808419620187064</v>
       </c>
       <c r="T4">
-        <v>0.003900034483633111</v>
+        <v>0.003808419620187063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H5">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N5">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O5">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P5">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q5">
-        <v>12.80947835270133</v>
+        <v>11.71792399502366</v>
       </c>
       <c r="R5">
-        <v>115.285305174312</v>
+        <v>105.461315955213</v>
       </c>
       <c r="S5">
-        <v>0.01222884061170102</v>
+        <v>0.007086389182733821</v>
       </c>
       <c r="T5">
-        <v>0.01222884061170103</v>
+        <v>0.007086389182733822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H6">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N6">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O6">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P6">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q6">
-        <v>137.0735100070498</v>
+        <v>281.9273551288952</v>
       </c>
       <c r="R6">
-        <v>1233.661590063448</v>
+        <v>2537.346196160057</v>
       </c>
       <c r="S6">
-        <v>0.130860138079637</v>
+        <v>0.1704949580275994</v>
       </c>
       <c r="T6">
-        <v>0.130860138079637</v>
+        <v>0.1704949580275994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H7">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N7">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O7">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P7">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q7">
-        <v>5.173762902348445</v>
+        <v>6.18369548295011</v>
       </c>
       <c r="R7">
-        <v>46.563866121136</v>
+        <v>55.653259346551</v>
       </c>
       <c r="S7">
-        <v>0.004939242657153817</v>
+        <v>0.003739576464082464</v>
       </c>
       <c r="T7">
-        <v>0.004939242657153817</v>
+        <v>0.003739576464082464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J8">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N8">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O8">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P8">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q8">
-        <v>43.79851099606378</v>
+        <v>48.51733952817845</v>
       </c>
       <c r="R8">
-        <v>394.186598964574</v>
+        <v>436.656055753606</v>
       </c>
       <c r="S8">
-        <v>0.04181317890183617</v>
+        <v>0.02934075610607453</v>
       </c>
       <c r="T8">
-        <v>0.04181317890183619</v>
+        <v>0.02934075610607453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J9">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N9">
         <v>1.76074</v>
       </c>
       <c r="O9">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P9">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q9">
-        <v>6.897166423968889</v>
+        <v>6.89716642396889</v>
       </c>
       <c r="R9">
-        <v>62.07449781572</v>
+        <v>62.07449781572001</v>
       </c>
       <c r="S9">
-        <v>0.006584526438057836</v>
+        <v>0.004171046471976145</v>
       </c>
       <c r="T9">
-        <v>0.006584526438057839</v>
+        <v>0.004171046471976143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J10">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N10">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O10">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P10">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q10">
-        <v>5.371985969725556</v>
+        <v>5.11239328771889</v>
       </c>
       <c r="R10">
-        <v>48.34787372753001</v>
+        <v>46.01153958947</v>
       </c>
       <c r="S10">
-        <v>0.005128480519131699</v>
+        <v>0.003091708779418396</v>
       </c>
       <c r="T10">
-        <v>0.005128480519131701</v>
+        <v>0.003091708779418395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J11">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N11">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O11">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P11">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q11">
-        <v>16.84425111310067</v>
+        <v>9.512714486591332</v>
       </c>
       <c r="R11">
-        <v>151.598260017906</v>
+        <v>85.61443037932199</v>
       </c>
       <c r="S11">
-        <v>0.01608072213511616</v>
+        <v>0.00575279350376773</v>
       </c>
       <c r="T11">
-        <v>0.01608072213511617</v>
+        <v>0.00575279350376773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J12">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N12">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O12">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P12">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q12">
-        <v>180.2493872067749</v>
+        <v>228.8711239670064</v>
       </c>
       <c r="R12">
-        <v>1622.244484860974</v>
+        <v>2059.840115703058</v>
       </c>
       <c r="S12">
-        <v>0.1720789064016482</v>
+        <v>0.1384093170265226</v>
       </c>
       <c r="T12">
-        <v>0.1720789064016483</v>
+        <v>0.1384093170265226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J13">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N13">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O13">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P13">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q13">
-        <v>6.803412217674222</v>
+        <v>5.019978762988222</v>
       </c>
       <c r="R13">
-        <v>61.23070995906801</v>
+        <v>45.179808866894</v>
       </c>
       <c r="S13">
-        <v>0.006495021993467224</v>
+        <v>0.003035821295538401</v>
       </c>
       <c r="T13">
-        <v>0.006495021993467226</v>
+        <v>0.0030358212955384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H14">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I14">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J14">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N14">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O14">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P14">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q14">
-        <v>10.71517969481555</v>
+        <v>20.65247864795022</v>
       </c>
       <c r="R14">
-        <v>96.43661725333997</v>
+        <v>185.872307831552</v>
       </c>
       <c r="S14">
-        <v>0.01022947391030966</v>
+        <v>0.01248954177801698</v>
       </c>
       <c r="T14">
-        <v>0.01022947391030966</v>
+        <v>0.01248954177801698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H15">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I15">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J15">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N15">
         <v>1.76074</v>
       </c>
       <c r="O15">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P15">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q15">
-        <v>1.687371920577777</v>
+        <v>2.935931435804445</v>
       </c>
       <c r="R15">
-        <v>15.1863472852</v>
+        <v>26.42338292224</v>
       </c>
       <c r="S15">
-        <v>0.00161088544757593</v>
+        <v>0.001775498183532192</v>
       </c>
       <c r="T15">
-        <v>0.001610885447575931</v>
+        <v>0.001775498183532191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H16">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I16">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J16">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N16">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O16">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P16">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q16">
-        <v>1.314240910811111</v>
+        <v>2.176203275804445</v>
       </c>
       <c r="R16">
-        <v>11.8281681973</v>
+        <v>19.58582948224</v>
       </c>
       <c r="S16">
-        <v>0.001254668002955529</v>
+        <v>0.001316054222543144</v>
       </c>
       <c r="T16">
-        <v>0.001254668002955529</v>
+        <v>0.001316054222543144</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H17">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I17">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J17">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N17">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O17">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P17">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q17">
-        <v>4.120897569273333</v>
+        <v>4.049297317802666</v>
       </c>
       <c r="R17">
-        <v>37.08807812345999</v>
+        <v>36.443675860224</v>
       </c>
       <c r="S17">
-        <v>0.00393410240169245</v>
+        <v>0.002448803791758332</v>
       </c>
       <c r="T17">
-        <v>0.003934102401692452</v>
+        <v>0.002448803791758332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H18">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I18">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J18">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N18">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O18">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P18">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q18">
-        <v>44.09749395303777</v>
+        <v>97.42405595252622</v>
       </c>
       <c r="R18">
-        <v>396.8774455773399</v>
+        <v>876.816503572736</v>
       </c>
       <c r="S18">
-        <v>0.04209860933278569</v>
+        <v>0.05891698704763977</v>
       </c>
       <c r="T18">
-        <v>0.0420986093327857</v>
+        <v>0.05891698704763976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H19">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I19">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J19">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N19">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O19">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P19">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q19">
-        <v>1.664435223764444</v>
+        <v>2.136864989383111</v>
       </c>
       <c r="R19">
-        <v>14.97991701388</v>
+        <v>19.231784904448</v>
       </c>
       <c r="S19">
-        <v>0.00158898844273576</v>
+        <v>0.001292264478943356</v>
       </c>
       <c r="T19">
-        <v>0.00158898844273576</v>
+        <v>0.001292264478943355</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H20">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N20">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O20">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P20">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q20">
-        <v>61.24154089507544</v>
+        <v>32.77008906319744</v>
       </c>
       <c r="R20">
-        <v>551.173868055679</v>
+        <v>294.930801568777</v>
       </c>
       <c r="S20">
-        <v>0.05846553792433809</v>
+        <v>0.0198176404586073</v>
       </c>
       <c r="T20">
-        <v>0.05846553792433811</v>
+        <v>0.0198176404586073</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H21">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,28 +1739,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N21">
         <v>1.76074</v>
       </c>
       <c r="O21">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P21">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q21">
-        <v>9.644005926402221</v>
+        <v>4.658556305748889</v>
       </c>
       <c r="R21">
-        <v>86.79605333762001</v>
+        <v>41.92700675174</v>
       </c>
       <c r="S21">
-        <v>0.009206855118140081</v>
+        <v>0.002817251846507535</v>
       </c>
       <c r="T21">
-        <v>0.009206855118140084</v>
+        <v>0.002817251846507534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H22">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N22">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O22">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P22">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q22">
-        <v>7.51141285333389</v>
+        <v>3.453066161373889</v>
       </c>
       <c r="R22">
-        <v>67.60271568000501</v>
+        <v>31.077595452365</v>
       </c>
       <c r="S22">
-        <v>0.007170929839834693</v>
+        <v>0.002088234289931893</v>
       </c>
       <c r="T22">
-        <v>0.007170929839834695</v>
+        <v>0.002088234289931893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H23">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N23">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O23">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P23">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q23">
-        <v>23.55257907015567</v>
+        <v>6.425177142644332</v>
       </c>
       <c r="R23">
-        <v>211.973211631401</v>
+        <v>57.82659428379899</v>
       </c>
       <c r="S23">
-        <v>0.02248496991937847</v>
+        <v>0.003885611975305482</v>
       </c>
       <c r="T23">
-        <v>0.02248496991937848</v>
+        <v>0.003885611975305482</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H24">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N24">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O24">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P24">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q24">
-        <v>252.0348287394532</v>
+        <v>154.5865290498234</v>
       </c>
       <c r="R24">
-        <v>2268.313458655079</v>
+        <v>1391.278761448411</v>
       </c>
       <c r="S24">
-        <v>0.2406104030459733</v>
+        <v>0.09348586897476496</v>
       </c>
       <c r="T24">
-        <v>0.2406104030459733</v>
+        <v>0.09348586897476496</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H25">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N25">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O25">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P25">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q25">
-        <v>9.512913523297556</v>
+        <v>3.390646576219222</v>
       </c>
       <c r="R25">
-        <v>85.61622170967802</v>
+        <v>30.515819185973</v>
       </c>
       <c r="S25">
-        <v>0.009081704970817044</v>
+        <v>0.002050486180862521</v>
       </c>
       <c r="T25">
-        <v>0.009081704970817048</v>
+        <v>0.002050486180862521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H26">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N26">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O26">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P26">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q26">
-        <v>21.44972751007221</v>
+        <v>22.59009902744644</v>
       </c>
       <c r="R26">
-        <v>193.04754759065</v>
+        <v>203.310891247018</v>
       </c>
       <c r="S26">
-        <v>0.02047743800822111</v>
+        <v>0.01366131351022294</v>
       </c>
       <c r="T26">
-        <v>0.02047743800822112</v>
+        <v>0.01366131351022294</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H27">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N27">
         <v>1.76074</v>
       </c>
       <c r="O27">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P27">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q27">
-        <v>3.37779383411111</v>
+        <v>3.211381210128889</v>
       </c>
       <c r="R27">
-        <v>30.400144507</v>
+        <v>28.90243089116</v>
       </c>
       <c r="S27">
-        <v>0.003224682635715631</v>
+        <v>0.00194207583858339</v>
       </c>
       <c r="T27">
-        <v>0.003224682635715632</v>
+        <v>0.00194207583858339</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H28">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N28">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O28">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P28">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q28">
-        <v>2.630857365194444</v>
+        <v>2.380375176378889</v>
       </c>
       <c r="R28">
-        <v>23.67771628675</v>
+        <v>21.42337658741</v>
       </c>
       <c r="S28">
-        <v>0.002511603869044198</v>
+        <v>0.001439526737663006</v>
       </c>
       <c r="T28">
-        <v>0.002511603869044199</v>
+        <v>0.001439526737663006</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H29">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N29">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O29">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P29">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q29">
-        <v>8.249243827483332</v>
+        <v>4.429203339707332</v>
       </c>
       <c r="R29">
-        <v>74.24319444734999</v>
+        <v>39.86283005736599</v>
       </c>
       <c r="S29">
-        <v>0.007875315852505291</v>
+        <v>0.002678551136528956</v>
       </c>
       <c r="T29">
-        <v>0.007875315852505293</v>
+        <v>0.002678551136528956</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H30">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N30">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O30">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P30">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q30">
-        <v>88.27469590896109</v>
+        <v>106.5644036795304</v>
       </c>
       <c r="R30">
-        <v>794.4722631806499</v>
+        <v>959.079633115774</v>
       </c>
       <c r="S30">
-        <v>0.08427331360370434</v>
+        <v>0.06444459255921124</v>
       </c>
       <c r="T30">
-        <v>0.08427331360370437</v>
+        <v>0.06444459255921124</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H31">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N31">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O31">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P31">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q31">
-        <v>3.331878981477777</v>
+        <v>2.337346162720222</v>
       </c>
       <c r="R31">
-        <v>29.9869108333</v>
+        <v>21.036115464482</v>
       </c>
       <c r="S31">
-        <v>0.003180849046313893</v>
+        <v>0.00141350503475181</v>
       </c>
       <c r="T31">
-        <v>0.003180849046313894</v>
+        <v>0.00141350503475181</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H32">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N32">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O32">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P32">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q32">
-        <v>5.965982389659111</v>
+        <v>79.67154948977489</v>
       </c>
       <c r="R32">
-        <v>53.693841506932</v>
+        <v>717.043945407974</v>
       </c>
       <c r="S32">
-        <v>0.00569555181924882</v>
+        <v>0.0481811971741538</v>
       </c>
       <c r="T32">
-        <v>0.005695551819248821</v>
+        <v>0.0481811971741538</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H33">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2483,28 +2483,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M33">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N33">
         <v>1.76074</v>
       </c>
       <c r="O33">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P33">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q33">
-        <v>0.9394925189955554</v>
+        <v>11.32601130709778</v>
       </c>
       <c r="R33">
-        <v>8.455432670959999</v>
+        <v>101.93410176388</v>
       </c>
       <c r="S33">
-        <v>0.0008969064902053017</v>
+        <v>0.006849380832664856</v>
       </c>
       <c r="T33">
-        <v>0.0008969064902053021</v>
+        <v>0.006849380832664854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H34">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N34">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O34">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P34">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q34">
-        <v>0.7317411702822223</v>
+        <v>8.395190230847779</v>
       </c>
       <c r="R34">
-        <v>6.58567053254</v>
+        <v>75.55671207763001</v>
       </c>
       <c r="S34">
-        <v>0.0006985722520475471</v>
+        <v>0.005076973128016284</v>
       </c>
       <c r="T34">
-        <v>0.0006985722520475473</v>
+        <v>0.005076973128016283</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H35">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N35">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O35">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P35">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q35">
-        <v>2.294427441078667</v>
+        <v>15.62106888734867</v>
       </c>
       <c r="R35">
-        <v>20.649846969708</v>
+        <v>140.589619986138</v>
       </c>
       <c r="S35">
-        <v>0.002190423895454493</v>
+        <v>0.00944680761140437</v>
       </c>
       <c r="T35">
-        <v>0.002190423895454493</v>
+        <v>0.00944680761140437</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H36">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N36">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O36">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P36">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q36">
-        <v>24.55253946690355</v>
+        <v>375.8350572649869</v>
       </c>
       <c r="R36">
-        <v>220.972855202132</v>
+        <v>3382.515515384882</v>
       </c>
       <c r="S36">
-        <v>0.02343960335355453</v>
+        <v>0.2272854377128405</v>
       </c>
       <c r="T36">
-        <v>0.02343960335355454</v>
+        <v>0.2272854377128405</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H37">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N37">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O37">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P37">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q37">
-        <v>0.9267218578248889</v>
+        <v>8.243434004058445</v>
       </c>
       <c r="R37">
-        <v>8.340496720423999</v>
+        <v>74.190906036526</v>
       </c>
       <c r="S37">
-        <v>0.0008847147072409951</v>
+        <v>0.004985198878209821</v>
       </c>
       <c r="T37">
-        <v>0.0008847147072409952</v>
+        <v>0.004985198878209821</v>
       </c>
     </row>
   </sheetData>
